--- a/StructureDefinition-BEMedicationLine.xlsx
+++ b/StructureDefinition-BEMedicationLine.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-07T20:10:57+00:00</t>
+    <t>2023-10-29T13:58:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEMedicationLine.xlsx
+++ b/StructureDefinition-BEMedicationLine.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-29T17:28:29+00:00</t>
+    <t>2023-10-29T18:04:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEMedicationLine.xlsx
+++ b/StructureDefinition-BEMedicationLine.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-29T18:04:13+00:00</t>
+    <t>2023-10-29T19:43:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEMedicationLine.xlsx
+++ b/StructureDefinition-BEMedicationLine.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-29T19:43:50+00:00</t>
+    <t>2023-11-02T09:56:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEMedicationLine.xlsx
+++ b/StructureDefinition-BEMedicationLine.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$66</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1549" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2418" uniqueCount="530">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-02T17:12:06+00:00</t>
+    <t>2024-01-09T10:02:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -472,6 +472,9 @@
 </t>
   </si>
   <si>
+    <t>The nature of the treatment - e.g. prophylaxis, therapy, etc.</t>
+  </si>
+  <si>
     <t>Exposure - category.</t>
   </si>
   <si>
@@ -479,30 +482,45 @@
 </t>
   </si>
   <si>
-    <t>MedicationStatement.extension:dispenseRequestNeeded</t>
-  </si>
-  <si>
-    <t>dispenseRequestNeeded</t>
+    <t>MedicationStatement.extension:dispense-request-needed</t>
+  </si>
+  <si>
+    <t>dispense-request-needed</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/medication/StructureDefinition/DispenseRequestNeededCategory}
 </t>
   </si>
   <si>
+    <t>Indication of whether a dispense request is needed for delivering the medication</t>
+  </si>
+  <si>
     <t>Dispense Request Needed - category.</t>
   </si>
   <si>
-    <t>MedicationStatement.extension:visibilityFlag</t>
-  </si>
-  <si>
-    <t>visibilityFlag</t>
+    <t>MedicationStatement.extension:visibility-flag</t>
+  </si>
+  <si>
+    <t>visibility-flag</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/medication/StructureDefinition/VisibilityFlag}
 </t>
   </si>
   <si>
+    <t>Coded preference or assertion about the visibility of the medication line</t>
+  </si>
+  <si>
     <t>Visibility Flag.</t>
+  </si>
+  <si>
+    <t>MedicationStatement.extension:exposure-category</t>
+  </si>
+  <si>
+    <t>exposure-category</t>
+  </si>
+  <si>
+    <t>Exposure category</t>
   </si>
   <si>
     <t>MedicationStatement.extension:artifact-version</t>
@@ -515,7 +533,7 @@
 </t>
   </si>
   <si>
-    <t>Business version of the {{title}}</t>
+    <t>The version of the medication line</t>
   </si>
   <si>
     <t>The identifier that is used to identify this version of the {{title}} when it is referenced in a specification, model, design or instance. This is an arbitrary value managed by the {{title}} author and is not expected to be globally unique. For example, it might be a timestamp (e.g. yyyymmdd) if a managed version is not available. There is also no expectation that versions can be placed in a lexicographical sequence.</t>
@@ -531,7 +549,7 @@
 </t>
   </si>
   <si>
-    <t>Date last changed</t>
+    <t>The date the medication line was created or changed</t>
   </si>
   <si>
     <t>The date  (and optionally time) when the {{title}} was last significantly changed. The date must change when the business version changes and it must change if the status code changes. In addition, it should change when the substantive content of the {{title}} changes.</t>
@@ -550,7 +568,7 @@
 </t>
   </si>
   <si>
-    <t>Optional Extensions Element</t>
+    <t>Indicates whether the medication is or is not being consumed or administered</t>
   </si>
   <si>
     <t>Optional Extension Element - found in all resources.</t>
@@ -1209,6 +1227,452 @@
   </si>
   <si>
     <t>refer dosageInstruction mapping</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.id</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.extension</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.extension:dosage-override</t>
+  </si>
+  <si>
+    <t>dosage-override</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/medication/StructureDefinition/DosageOverride}
+</t>
+  </si>
+  <si>
+    <t>Indicates that the recommended dosage was overridden</t>
+  </si>
+  <si>
+    <t>Dispense override.</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.extension:dosage-override-reason</t>
+  </si>
+  <si>
+    <t>dosage-override-reason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/medication/StructureDefinition/DosageOverrideReason}
+</t>
+  </si>
+  <si>
+    <t>The reason why the recommended dosage was overridden</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.sequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">integer
+</t>
+  </si>
+  <si>
+    <t>The order of the dosage instructions</t>
+  </si>
+  <si>
+    <t>Indicates the order in which the dosage instructions should be applied or interpreted.</t>
+  </si>
+  <si>
+    <t>If the sequence number of multiple Dosages is the same, then it is implied that the instructions are to be treated as concurrent.  If the sequence number is different, then the Dosages are intended to be sequential.</t>
+  </si>
+  <si>
+    <t>Dosage.sequence</t>
+  </si>
+  <si>
+    <t>.text</t>
+  </si>
+  <si>
+    <t>TQ1-1</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.text</t>
+  </si>
+  <si>
+    <t>Free text dosage instructions e.g. SIG</t>
+  </si>
+  <si>
+    <t>Free text dosage instructions e.g. SIG.</t>
+  </si>
+  <si>
+    <t>Free text dosage instructions can be used for cases where the instructions are too complex to code.  The content of this attribute does not include the name or description of the medication. When coded instructions are present, the free text instructions may still be present for display to humans taking or administering the medication. It is expected that the text instructions will always be populated.  If the dosage.timing attribute is also populated, then the dosage.text should reflect the same information as the timing.  Additional information about administration or preparation of the medication should be included as text.</t>
+  </si>
+  <si>
+    <t>Dosage.text</t>
+  </si>
+  <si>
+    <t>RXO-6; RXE-21</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.additionalInstruction</t>
+  </si>
+  <si>
+    <t>Supplemental instruction or warnings to the patient - e.g. "with meals", "may cause drowsiness"</t>
+  </si>
+  <si>
+    <t>Supplemental instructions to the patient on how to take the medication  (e.g. "with meals" or"take half to one hour before food") or warnings for the patient about the medication (e.g. "may cause drowsiness" or "avoid exposure of skin to direct sunlight or sunlamps").</t>
+  </si>
+  <si>
+    <t>Information about administration or preparation of the medication (e.g. "infuse as rapidly as possibly via intraperitoneal port" or "immediately following drug x") should be populated in dosage.text.</t>
+  </si>
+  <si>
+    <t>Additional instruction is intended to be coded, but where no code exists, the element could include text.  For example, "Swallow with plenty of water" which might or might not be coded.</t>
+  </si>
+  <si>
+    <t>A coded concept identifying additional instructions such as "take with water" or "avoid operating heavy machinery".</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/additional-instruction-codes</t>
+  </si>
+  <si>
+    <t>Dosage.additionalInstruction</t>
+  </si>
+  <si>
+    <t>RXO-7</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.patientInstruction</t>
+  </si>
+  <si>
+    <t>Patient or consumer oriented instructions</t>
+  </si>
+  <si>
+    <t>Instructions in terms that are understood by the patient or consumer.</t>
+  </si>
+  <si>
+    <t>Dosage.patientInstruction</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.timing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timing
+</t>
+  </si>
+  <si>
+    <t>When medication should be administered</t>
+  </si>
+  <si>
+    <t>When medication should be administered.</t>
+  </si>
+  <si>
+    <t>This attribute might not always be populated while the Dosage.text is expected to be populated.  If both are populated, then the Dosage.text should reflect the content of the Dosage.timing.</t>
+  </si>
+  <si>
+    <t>The timing schedule for giving the medication to the patient. This  data type allows many different expressions. For example: "Every 8 hours"; "Three times a day"; "1/2 an hour before breakfast for 10 days from 23-Dec 2011:"; "15 Oct 2013, 17 Oct 2013 and 1 Nov 2013".  Sometimes, a rate can imply duration when expressed as total volume / duration (e.g.  500mL/2 hours implies a duration of 2 hours).  However, when rate doesn't imply duration (e.g. 250mL/hour), then the timing.repeat.duration is needed to convey the infuse over time period.</t>
+  </si>
+  <si>
+    <t>Dosage.timing</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.asNeeded[x]</t>
+  </si>
+  <si>
+    <t>boolean
+CodeableConcept</t>
+  </si>
+  <si>
+    <t>Take "as needed" (for x)</t>
+  </si>
+  <si>
+    <t>Indicates whether the Medication is only taken when needed within a specific dosing schedule (Boolean option), or it indicates the precondition for taking the Medication (CodeableConcept).</t>
+  </si>
+  <si>
+    <t>Can express "as needed" without a reason by setting the Boolean = True.  In this case the CodeableConcept is not populated.  Or you can express "as needed" with a reason by including the CodeableConcept.  In this case the Boolean is assumed to be True.  If you set the Boolean to False, then the dose is given according to the schedule and is not "prn" or "as needed".</t>
+  </si>
+  <si>
+    <t>A coded concept identifying the precondition that should be met or evaluated prior to consuming or administering a medication dose.  For example "pain", "30 minutes prior to sexual intercourse", "on flare-up" etc.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medication-as-needed-reason</t>
+  </si>
+  <si>
+    <t>Dosage.asNeeded[x]</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=PRCN].target[classCode=OBS, moodCode=EVN, code="as needed"].value=boolean or codable concept</t>
+  </si>
+  <si>
+    <t>TQ1-9</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.site</t>
+  </si>
+  <si>
+    <t>Body site to administer to</t>
+  </si>
+  <si>
+    <t>Body site to administer to.</t>
+  </si>
+  <si>
+    <t>If the use case requires attributes from the BodySite resource (e.g. to identify and track separately) then use the standard extension [bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).  May be a summary code, or a reference to a very precise definition of the location, or both.</t>
+  </si>
+  <si>
+    <t>A coded specification of the anatomic site where the medication first enters the body.</t>
+  </si>
+  <si>
+    <t>A coded concept describing the site location the medicine enters into or onto the body.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/approach-site-codes</t>
+  </si>
+  <si>
+    <t>Dosage.site</t>
+  </si>
+  <si>
+    <t>.approachSiteCode</t>
+  </si>
+  <si>
+    <t>RXR-2</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.route</t>
+  </si>
+  <si>
+    <t>How drug should enter body</t>
+  </si>
+  <si>
+    <t>How drug should enter body.</t>
+  </si>
+  <si>
+    <t>A code specifying the route or physiological path of administration of a therapeutic agent into or onto a patient's body.</t>
+  </si>
+  <si>
+    <t>A coded concept describing the route or physiological path of administration of a therapeutic agent into or onto the body of a subject.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/route-codes</t>
+  </si>
+  <si>
+    <t>Dosage.route</t>
+  </si>
+  <si>
+    <t>.routeCode</t>
+  </si>
+  <si>
+    <t>RXR-1</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.method</t>
+  </si>
+  <si>
+    <t>Technique for administering medication</t>
+  </si>
+  <si>
+    <t>Technique for administering medication.</t>
+  </si>
+  <si>
+    <t>Terminologies used often pre-coordinate this term with the route and or form of administration.</t>
+  </si>
+  <si>
+    <t>A coded value indicating the method by which the medication is introduced into or onto the body. Most commonly used for injections.  For examples, Slow Push; Deep IV.</t>
+  </si>
+  <si>
+    <t>A coded concept describing the technique by which the medicine is administered.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/administration-method-codes</t>
+  </si>
+  <si>
+    <t>Dosage.method</t>
+  </si>
+  <si>
+    <t>.doseQuantity</t>
+  </si>
+  <si>
+    <t>RXR-4</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.doseAndRate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Element
+</t>
+  </si>
+  <si>
+    <t>Amount of medication administered</t>
+  </si>
+  <si>
+    <t>The amount of medication administered.</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate</t>
+  </si>
+  <si>
+    <t>TQ1-2</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.doseAndRate.id</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.doseAndRate.extension</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.doseAndRate.type</t>
+  </si>
+  <si>
+    <t>The kind of dose or rate specified</t>
+  </si>
+  <si>
+    <t>The kind of dose or rate specified, for example, ordered or calculated.</t>
+  </si>
+  <si>
+    <t>If the type is not populated, assume to be "ordered".</t>
+  </si>
+  <si>
+    <t>The kind of dose or rate specified.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/dose-rate-type</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.type</t>
+  </si>
+  <si>
+    <t>RXO-21; RXE-23</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.doseAndRate.dose[x]</t>
+  </si>
+  <si>
+    <t>Range
+Quantity {SimpleQuantity}</t>
+  </si>
+  <si>
+    <t>Amount of medication per dose</t>
+  </si>
+  <si>
+    <t>Amount of medication per dose.</t>
+  </si>
+  <si>
+    <t>Note that this specifies the quantity of the specified medication, not the quantity for each active ingredient(s). Each ingredient amount can be communicated in the Medication resource. For example, if one wants to communicate that a tablet was 375 mg, where the dose was one tablet, you can use the Medication resource to document that the tablet was comprised of 375 mg of drug XYZ. Alternatively if the dose was 375 mg, then you may only need to use the Medication resource to indicate this was a tablet. If the example were an IV such as dopamine and you wanted to communicate that 400mg of dopamine was mixed in 500 ml of some IV solution, then this would all be communicated in the Medication resource. If the administration is not intended to be instantaneous (rate is present or timing has a duration), this can be specified to convey the total amount to be administered over the period of time as indicated by the schedule e.g. 500 ml in dose, with timing used to convey that this should be done over 4 hours.</t>
+  </si>
+  <si>
+    <t>The amount of therapeutic or other substance given at one administration event.</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.dose[x]</t>
+  </si>
+  <si>
+    <t>RXO-2, RXE-3</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.doseAndRate.rate[x]</t>
+  </si>
+  <si>
+    <t>Ratio
+RangeQuantity {SimpleQuantity}</t>
+  </si>
+  <si>
+    <t>Amount of medication per unit of time</t>
+  </si>
+  <si>
+    <t>Amount of medication per unit of time.</t>
+  </si>
+  <si>
+    <t>It is possible to supply both a rate and a doseQuantity to provide full details about how the medication is to be administered and supplied. If the rate is intended to change over time, depending on local rules/regulations, each change should be captured as a new version of the MedicationRequest with an updated rate, or captured with a new MedicationRequest with the new rate.++It is possible to specify a rate over time (for example, 100 ml/hour) using either the rateRatio and rateQuantity.  The rateQuantity approach requires systems to have the capability to parse UCUM grammer where ml/hour is included rather than a specific ratio where the time is specified as the denominator.  Where a rate such as 500ml over 2 hours is specified, the use of rateRatio may be more semantically correct than specifying using a rateQuantity of 250 mg/hour.</t>
+  </si>
+  <si>
+    <t>Identifies the speed with which the medication was or will be introduced into the patient. Typically the rate for an infusion e.g. 100 ml per 1 hour or 100 ml/hr.  May also be expressed as a rate per unit of time e.g. 500 ml per 2 hours.   Other examples: 200 mcg/min or 200 mcg/1 minute; 1 liter/8 hours.  Sometimes, a rate can imply duration when expressed as total volume / duration (e.g.  500mL/2 hours implies a duration of 2 hours).  However, when rate doesn't imply duration (e.g. 250mL/hour), then the timing.repeat.duration is needed to convey the infuse over time period.</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rate[x]</t>
+  </si>
+  <si>
+    <t>.rateQuantity</t>
+  </si>
+  <si>
+    <t>RXE22, RXE23, RXE-24</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.maxDosePerPeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio
+</t>
+  </si>
+  <si>
+    <t>Upper limit on medication per unit of time</t>
+  </si>
+  <si>
+    <t>Upper limit on medication per unit of time.</t>
+  </si>
+  <si>
+    <t>This is intended for use as an adjunct to the dosage when there is an upper cap.  For example "2 tablets every 4 hours to a maximum of 8/day".</t>
+  </si>
+  <si>
+    <t>The maximum total quantity of a therapeutic substance that may be administered to a subject over the period of time.  For example, 1000mg in 24 hours.</t>
+  </si>
+  <si>
+    <t>Dosage.maxDosePerPeriod</t>
+  </si>
+  <si>
+    <t>.maxDoseQuantity</t>
+  </si>
+  <si>
+    <t>RXO-23, RXE-19</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.maxDosePerAdministration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity {SimpleQuantity}
+</t>
+  </si>
+  <si>
+    <t>Upper limit on medication per administration</t>
+  </si>
+  <si>
+    <t>Upper limit on medication per administration.</t>
+  </si>
+  <si>
+    <t>This is intended for use as an adjunct to the dosage when there is an upper cap.  For example, a body surface area related dose with a maximum amount, such as 1.5 mg/m2 (maximum 2 mg) IV over 5 – 10 minutes would have doseQuantity of 1.5 mg/m2 and maxDosePerAdministration of 2 mg.</t>
+  </si>
+  <si>
+    <t>The maximum total quantity of a therapeutic substance that may be administered to a subject per administration.</t>
+  </si>
+  <si>
+    <t>Dosage.maxDosePerAdministration</t>
+  </si>
+  <si>
+    <t>not supported</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.maxDosePerLifetime</t>
+  </si>
+  <si>
+    <t>Upper limit on medication per lifetime of the patient</t>
+  </si>
+  <si>
+    <t>Upper limit on medication per lifetime of the patient.</t>
+  </si>
+  <si>
+    <t>The maximum total quantity of a therapeutic substance that may be administered per lifetime of the subject.</t>
+  </si>
+  <si>
+    <t>Dosage.maxDosePerLifetime</t>
   </si>
 </sst>
 </file>
@@ -1534,7 +1998,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN42"/>
+  <dimension ref="A1:AN66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1543,9 +2007,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="53.6640625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.08203125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="23.8203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="1" max="1" width="59.9921875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="53.5859375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="24.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1567,7 +2031,7 @@
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="124.08984375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="198.02734375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="58.140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
@@ -2645,10 +3109,10 @@
         <v>142</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2708,7 +3172,7 @@
         <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>139</v>
@@ -2728,13 +3192,13 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>131</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>76</v>
@@ -2756,13 +3220,13 @@
         <v>76</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2822,7 +3286,7 @@
         <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>139</v>
@@ -2842,13 +3306,13 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>131</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>76</v>
@@ -2870,13 +3334,13 @@
         <v>76</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2936,7 +3400,7 @@
         <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>139</v>
@@ -2956,20 +3420,20 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>131</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>87</v>
@@ -2984,13 +3448,13 @@
         <v>76</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3050,7 +3514,7 @@
         <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>139</v>
@@ -3070,20 +3534,20 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>131</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>87</v>
@@ -3098,17 +3562,15 @@
         <v>76</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N14" t="s" s="2">
         <v>163</v>
       </c>
+      <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>76</v>
@@ -3199,7 +3661,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>87</v>
@@ -3222,7 +3684,9 @@
       <c r="M15" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="N15" s="2"/>
+      <c r="N15" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>76</v>
@@ -3280,7 +3744,7 @@
         <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>144</v>
+        <v>76</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>139</v>
@@ -3289,7 +3753,7 @@
         <v>76</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>76</v>
@@ -3300,46 +3764,44 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="D16" t="s" s="2">
-        <v>170</v>
+        <v>76</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="O16" t="s" s="2">
         <v>174</v>
       </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>76</v>
       </c>
@@ -3387,7 +3849,7 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>175</v>
+        <v>138</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -3396,7 +3858,7 @@
         <v>78</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>139</v>
@@ -3416,44 +3878,46 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>76</v>
+        <v>176</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="I17" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="J17" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="N17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>76</v>
       </c>
@@ -3489,19 +3953,19 @@
         <v>76</v>
       </c>
       <c r="AB17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF17" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -3513,16 +3977,16 @@
         <v>76</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>183</v>
+        <v>76</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>184</v>
+        <v>130</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>185</v>
+        <v>76</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>76</v>
@@ -3530,23 +3994,21 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="C18" t="s" s="2">
-        <v>187</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>88</v>
@@ -3558,16 +4020,16 @@
         <v>88</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3605,19 +4067,19 @@
         <v>76</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>76</v>
+        <v>187</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>76</v>
+        <v>188</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -3632,13 +4094,13 @@
         <v>99</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>76</v>
@@ -3646,12 +4108,14 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="C19" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="D19" t="s" s="2">
         <v>76</v>
       </c>
@@ -3663,24 +4127,26 @@
         <v>87</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>76</v>
@@ -3729,28 +4195,28 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>76</v>
+        <v>189</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>76</v>
@@ -3758,21 +4224,21 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>170</v>
+        <v>76</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>76</v>
@@ -3784,7 +4250,7 @@
         <v>76</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>133</v>
+        <v>198</v>
       </c>
       <c r="L20" t="s" s="2">
         <v>199</v>
@@ -3792,9 +4258,7 @@
       <c r="M20" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="N20" t="s" s="2">
-        <v>173</v>
-      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>76</v>
@@ -3831,37 +4295,37 @@
         <v>76</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="AC20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF20" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="AD20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AF20" t="s" s="2">
+      <c r="AG20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>76</v>
@@ -3879,26 +4343,26 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>76</v>
+        <v>176</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="L21" t="s" s="2">
         <v>205</v>
@@ -3907,11 +4371,9 @@
         <v>206</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>76</v>
       </c>
@@ -3935,63 +4397,63 @@
         <v>76</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>209</v>
+        <v>76</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>210</v>
+        <v>76</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>211</v>
+        <v>76</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>76</v>
+        <v>207</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4008,25 +4470,25 @@
         <v>76</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>216</v>
+        <v>107</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>76</v>
@@ -4051,13 +4513,13 @@
         <v>76</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>76</v>
@@ -4075,7 +4537,7 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -4093,21 +4555,21 @@
         <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>225</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4115,7 +4577,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>87</v>
@@ -4130,19 +4592,19 @@
         <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>101</v>
+        <v>222</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>76</v>
@@ -4152,10 +4614,10 @@
         <v>76</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>232</v>
+        <v>76</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>233</v>
+        <v>76</v>
       </c>
       <c r="U23" t="s" s="2">
         <v>76</v>
@@ -4167,13 +4629,13 @@
         <v>76</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>76</v>
+        <v>227</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>76</v>
+        <v>228</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>76</v>
+        <v>229</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>76</v>
@@ -4191,7 +4653,7 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4209,21 +4671,21 @@
         <v>76</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4231,13 +4693,13 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>76</v>
@@ -4246,18 +4708,20 @@
         <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>192</v>
+        <v>101</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="O24" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>76</v>
       </c>
@@ -4266,10 +4730,10 @@
         <v>76</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>76</v>
+        <v>238</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="U24" t="s" s="2">
         <v>76</v>
@@ -4305,7 +4769,7 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4323,21 +4787,21 @@
         <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4351,7 +4815,7 @@
         <v>87</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>76</v>
@@ -4360,15 +4824,17 @@
         <v>88</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>248</v>
+        <v>198</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>76</v>
@@ -4381,7 +4847,7 @@
         <v>76</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>76</v>
+        <v>248</v>
       </c>
       <c r="U25" t="s" s="2">
         <v>76</v>
@@ -4417,7 +4883,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4435,21 +4901,21 @@
         <v>76</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4472,17 +4938,15 @@
         <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="L26" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>259</v>
-      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>76</v>
@@ -4531,7 +4995,7 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4549,21 +5013,21 @@
         <v>76</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4574,7 +5038,7 @@
         <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>76</v>
@@ -4586,18 +5050,18 @@
         <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="M27" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N27" s="2"/>
-      <c r="O27" t="s" s="2">
-        <v>267</v>
-      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>76</v>
       </c>
@@ -4645,13 +5109,13 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>76</v>
@@ -4660,24 +5124,24 @@
         <v>99</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4700,17 +5164,17 @@
         <v>88</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>76</v>
@@ -4759,7 +5223,7 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4774,10 +5238,10 @@
         <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>76</v>
@@ -4788,10 +5252,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4799,22 +5263,22 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>107</v>
+        <v>277</v>
       </c>
       <c r="L29" t="s" s="2">
         <v>278</v>
@@ -4822,10 +5286,10 @@
       <c r="M29" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="N29" t="s" s="2">
+      <c r="N29" s="2"/>
+      <c r="O29" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>76</v>
       </c>
@@ -4849,13 +5313,13 @@
         <v>76</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>209</v>
+        <v>76</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>281</v>
+        <v>76</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>282</v>
+        <v>76</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>76</v>
@@ -4873,13 +5337,13 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>76</v>
@@ -4888,13 +5352,13 @@
         <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>285</v>
+        <v>76</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>76</v>
@@ -4902,10 +5366,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4913,31 +5377,31 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>88</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>216</v>
+        <v>107</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4963,13 +5427,13 @@
         <v>76</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>290</v>
+        <v>215</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>76</v>
@@ -4987,13 +5451,13 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>76</v>
@@ -5002,13 +5466,13 @@
         <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>76</v>
+        <v>291</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>76</v>
@@ -5016,10 +5480,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5030,7 +5494,7 @@
         <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>88</v>
@@ -5039,18 +5503,20 @@
         <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>76</v>
@@ -5075,14 +5541,14 @@
         <v>76</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>111</v>
+        <v>296</v>
       </c>
       <c r="Y31" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="Z31" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="Z31" t="s" s="2">
-        <v>299</v>
-      </c>
       <c r="AA31" t="s" s="2">
         <v>76</v>
       </c>
@@ -5099,13 +5565,13 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>76</v>
@@ -5114,13 +5580,13 @@
         <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>76</v>
+        <v>299</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>300</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>301</v>
+        <v>76</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>76</v>
@@ -5128,10 +5594,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5139,7 +5605,7 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>87</v>
@@ -5154,17 +5620,15 @@
         <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="L32" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>306</v>
-      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>76</v>
@@ -5189,13 +5653,13 @@
         <v>76</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>290</v>
+        <v>111</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>76</v>
@@ -5213,10 +5677,10 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>87</v>
@@ -5228,13 +5692,13 @@
         <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>309</v>
+        <v>76</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>76</v>
@@ -5242,10 +5706,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5268,15 +5732,17 @@
         <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>76</v>
@@ -5301,13 +5767,13 @@
         <v>76</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>76</v>
+        <v>296</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>76</v>
+        <v>313</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>76</v>
+        <v>314</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>76</v>
@@ -5325,7 +5791,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>87</v>
@@ -5340,24 +5806,24 @@
         <v>99</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AM33" t="s" s="2">
-        <v>318</v>
-      </c>
       <c r="AN33" t="s" s="2">
-        <v>319</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5365,13 +5831,13 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>76</v>
@@ -5380,13 +5846,13 @@
         <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5437,10 +5903,10 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>87</v>
@@ -5452,16 +5918,16 @@
         <v>99</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AN34" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="35" hidden="true">
@@ -5477,13 +5943,13 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>76</v>
@@ -5500,9 +5966,7 @@
       <c r="M35" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="N35" t="s" s="2">
-        <v>330</v>
-      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>76</v>
@@ -5566,13 +6030,13 @@
         <v>99</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="AL35" t="s" s="2">
-        <v>332</v>
-      </c>
       <c r="AM35" t="s" s="2">
-        <v>333</v>
+        <v>76</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>76</v>
@@ -5580,10 +6044,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5591,7 +6055,7 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>87</v>
@@ -5606,15 +6070,17 @@
         <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="M36" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>76</v>
@@ -5663,7 +6129,7 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -5678,7 +6144,7 @@
         <v>99</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>76</v>
+        <v>337</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>338</v>
@@ -5703,7 +6169,7 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>87</v>
@@ -5715,7 +6181,7 @@
         <v>76</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>341</v>
@@ -5815,13 +6281,13 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>76</v>
@@ -5838,9 +6304,7 @@
       <c r="M38" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="N38" t="s" s="2">
-        <v>350</v>
-      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>76</v>
@@ -5895,7 +6359,7 @@
         <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>76</v>
@@ -5907,10 +6371,10 @@
         <v>76</v>
       </c>
       <c r="AL38" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>76</v>
@@ -5935,7 +6399,7 @@
         <v>78</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>76</v>
@@ -5944,16 +6408,16 @@
         <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>216</v>
+        <v>353</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -5979,13 +6443,13 @@
         <v>76</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>290</v>
+        <v>76</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>356</v>
+        <v>76</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>357</v>
+        <v>76</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>76</v>
@@ -6018,13 +6482,13 @@
         <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>358</v>
+        <v>76</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>360</v>
+        <v>76</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>76</v>
@@ -6032,10 +6496,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6058,16 +6522,16 @@
         <v>76</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>362</v>
+        <v>222</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6093,13 +6557,13 @@
         <v>76</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>76</v>
+        <v>296</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>76</v>
+        <v>362</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>76</v>
+        <v>363</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>76</v>
@@ -6117,7 +6581,7 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -6132,13 +6596,13 @@
         <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AM40" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>76</v>
@@ -6146,10 +6610,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6172,15 +6636,17 @@
         <v>76</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>76</v>
@@ -6229,7 +6695,7 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6250,7 +6716,7 @@
         <v>373</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>76</v>
+        <v>366</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>76</v>
@@ -6275,7 +6741,7 @@
         <v>78</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>76</v>
@@ -6292,9 +6758,7 @@
       <c r="M42" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="N42" t="s" s="2">
-        <v>378</v>
-      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>76</v>
@@ -6358,7 +6822,7 @@
         <v>99</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>76</v>
+        <v>378</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>379</v>
@@ -6370,8 +6834,2754 @@
         <v>76</v>
       </c>
     </row>
+    <row r="43" hidden="true">
+      <c r="A43" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="O43" s="2"/>
+      <c r="P43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q43" s="2"/>
+      <c r="R43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN43" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" hidden="true">
+      <c r="A44" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q44" s="2"/>
+      <c r="R44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN44" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" hidden="true">
+      <c r="A45" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="O45" s="2"/>
+      <c r="P45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q45" s="2"/>
+      <c r="R45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" hidden="true">
+      <c r="A46" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="C46" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="D46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q46" s="2"/>
+      <c r="R46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN46" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" hidden="true">
+      <c r="A47" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="D47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q47" s="2"/>
+      <c r="R47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" hidden="true">
+      <c r="A48" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="P48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q48" s="2"/>
+      <c r="R48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" hidden="true">
+      <c r="A49" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="P49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q49" s="2"/>
+      <c r="R49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="50" hidden="true">
+      <c r="A50" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="P50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q50" s="2"/>
+      <c r="R50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="51" hidden="true">
+      <c r="A51" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="P51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q51" s="2"/>
+      <c r="R51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="52" hidden="true">
+      <c r="A52" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q52" s="2"/>
+      <c r="R52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="P53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="O54" s="2"/>
+      <c r="P54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="P55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="P56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="P57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q59" s="2"/>
+      <c r="R59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="O60" s="2"/>
+      <c r="P60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="R60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="P61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="P62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="R62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="P63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="P64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="P65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="P66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AN42">
+  <autoFilter ref="A1:AN66">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6381,7 +9591,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI41">
+  <conditionalFormatting sqref="A2:AI65">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-BEMedicationLine.xlsx
+++ b/StructureDefinition-BEMedicationLine.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$65</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2418" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2382" uniqueCount="527">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-09T10:02:55+00:00</t>
+    <t>2024-01-09T13:30:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -462,17 +462,17 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>MedicationStatement.extension:exposureCategory</t>
-  </si>
-  <si>
-    <t>exposureCategory</t>
+    <t>MedicationStatement.extension:exposure-category</t>
+  </si>
+  <si>
+    <t>exposure-category</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/medication/StructureDefinition/ExposureCategory}
 </t>
   </si>
   <si>
-    <t>The nature of the treatment - e.g. prophylaxis, therapy, etc.</t>
+    <t>Exposure category</t>
   </si>
   <si>
     <t>Exposure - category.</t>
@@ -514,15 +514,6 @@
     <t>Visibility Flag.</t>
   </si>
   <si>
-    <t>MedicationStatement.extension:exposure-category</t>
-  </si>
-  <si>
-    <t>exposure-category</t>
-  </si>
-  <si>
-    <t>Exposure category</t>
-  </si>
-  <si>
     <t>MedicationStatement.extension:artifact-version</t>
   </si>
   <si>
@@ -533,7 +524,7 @@
 </t>
   </si>
   <si>
-    <t>The version of the medication line</t>
+    <t>The business version of the medication line - this version changes when the content update is considered clinically relevant</t>
   </si>
   <si>
     <t>The identifier that is used to identify this version of the {{title}} when it is referenced in a specification, model, design or instance. This is an arbitrary value managed by the {{title}} author and is not expected to be globally unique. For example, it might be a timestamp (e.g. yyyymmdd) if a managed version is not available. There is also no expectation that versions can be placed in a lexicographical sequence.</t>
@@ -549,7 +540,7 @@
 </t>
   </si>
   <si>
-    <t>The date the medication line was created or changed</t>
+    <t>The business-relevant recorded date - the date the medication line was created or changed</t>
   </si>
   <si>
     <t>The date  (and optionally time) when the {{title}} was last significantly changed. The date must change when the business version changes and it must change if the status code changes. In addition, it should change when the substantive content of the {{title}} changes.</t>
@@ -1998,7 +1989,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN66"/>
+  <dimension ref="A1:AN65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3433,7 +3424,7 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>87</v>
@@ -3448,13 +3439,13 @@
         <v>76</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3514,7 +3505,7 @@
         <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>139</v>
@@ -3534,20 +3525,20 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>131</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>87</v>
@@ -3562,15 +3553,17 @@
         <v>76</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>76</v>
@@ -3648,20 +3641,20 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>131</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>87</v>
@@ -3676,17 +3669,15 @@
         <v>76</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>76</v>
@@ -3744,7 +3735,7 @@
         <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>139</v>
@@ -3753,7 +3744,7 @@
         <v>76</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>76</v>
@@ -3764,44 +3755,46 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="C16" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I16" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="I16" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="J16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>172</v>
+        <v>133</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="O16" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="P16" t="s" s="2">
         <v>76</v>
       </c>
@@ -3849,7 +3842,7 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -3858,7 +3851,7 @@
         <v>78</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>139</v>
@@ -3878,46 +3871,44 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>176</v>
+        <v>76</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J17" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="J17" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="K17" t="s" s="2">
-        <v>133</v>
+        <v>180</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>180</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>76</v>
       </c>
@@ -3953,19 +3944,19 @@
         <v>76</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>76</v>
+        <v>184</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>76</v>
+        <v>185</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -3977,16 +3968,16 @@
         <v>76</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>76</v>
+        <v>186</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>130</v>
+        <v>187</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>76</v>
+        <v>188</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>76</v>
@@ -3994,21 +3985,23 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="D18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G18" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="G18" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>88</v>
@@ -4020,16 +4013,16 @@
         <v>88</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="N18" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -4067,19 +4060,19 @@
         <v>76</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>187</v>
+        <v>76</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>188</v>
+        <v>76</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -4094,13 +4087,13 @@
         <v>99</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>76</v>
@@ -4108,14 +4101,12 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="C19" t="s" s="2">
-        <v>193</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
         <v>76</v>
       </c>
@@ -4127,26 +4118,24 @@
         <v>87</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>186</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>76</v>
@@ -4195,28 +4184,28 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>189</v>
+        <v>76</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>191</v>
+        <v>76</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>76</v>
@@ -4224,21 +4213,21 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>76</v>
@@ -4250,15 +4239,17 @@
         <v>76</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>198</v>
+        <v>133</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>76</v>
@@ -4295,37 +4286,37 @@
         <v>76</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>76</v>
+        <v>204</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>76</v>
@@ -4336,44 +4327,46 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>176</v>
+        <v>76</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="O21" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>76</v>
       </c>
@@ -4397,63 +4390,63 @@
         <v>76</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>76</v>
+        <v>212</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>76</v>
+        <v>213</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>76</v>
+        <v>214</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>207</v>
+        <v>76</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4470,25 +4463,25 @@
         <v>76</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>107</v>
+        <v>219</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>76</v>
@@ -4513,13 +4506,13 @@
         <v>76</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>76</v>
@@ -4537,7 +4530,7 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -4555,21 +4548,21 @@
         <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>130</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4577,7 +4570,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>87</v>
@@ -4592,19 +4585,19 @@
         <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>222</v>
+        <v>101</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>76</v>
@@ -4614,10 +4607,10 @@
         <v>76</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>76</v>
+        <v>235</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>76</v>
+        <v>236</v>
       </c>
       <c r="U23" t="s" s="2">
         <v>76</v>
@@ -4629,13 +4622,13 @@
         <v>76</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>227</v>
+        <v>76</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>228</v>
+        <v>76</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>229</v>
+        <v>76</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>76</v>
@@ -4653,7 +4646,7 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4671,21 +4664,21 @@
         <v>76</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>231</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4693,13 +4686,13 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>76</v>
@@ -4708,20 +4701,18 @@
         <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>101</v>
+        <v>195</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>237</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>76</v>
       </c>
@@ -4730,10 +4721,10 @@
         <v>76</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>238</v>
+        <v>76</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="U24" t="s" s="2">
         <v>76</v>
@@ -4769,7 +4760,7 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4787,21 +4778,21 @@
         <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>242</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4815,7 +4806,7 @@
         <v>87</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>76</v>
@@ -4824,17 +4815,15 @@
         <v>88</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>198</v>
+        <v>251</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>247</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>76</v>
@@ -4847,7 +4836,7 @@
         <v>76</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>248</v>
+        <v>76</v>
       </c>
       <c r="U25" t="s" s="2">
         <v>76</v>
@@ -4883,7 +4872,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4901,21 +4890,21 @@
         <v>76</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4938,15 +4927,17 @@
         <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>76</v>
@@ -4995,7 +4986,7 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -5013,21 +5004,21 @@
         <v>76</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>259</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5038,7 +5029,7 @@
         <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>76</v>
@@ -5050,18 +5041,18 @@
         <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="O27" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>76</v>
       </c>
@@ -5115,7 +5106,7 @@
         <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>76</v>
@@ -5124,24 +5115,24 @@
         <v>99</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>76</v>
+        <v>271</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>268</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5164,17 +5155,17 @@
         <v>88</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>76</v>
@@ -5223,7 +5214,7 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -5238,10 +5229,10 @@
         <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>76</v>
@@ -5252,10 +5243,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5263,33 +5254,33 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>277</v>
+        <v>107</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" t="s" s="2">
-        <v>280</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>76</v>
       </c>
@@ -5313,13 +5304,13 @@
         <v>76</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>76</v>
+        <v>212</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>76</v>
+        <v>284</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>76</v>
+        <v>285</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>76</v>
@@ -5337,13 +5328,13 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>76</v>
@@ -5352,13 +5343,13 @@
         <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>76</v>
+        <v>288</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>76</v>
@@ -5366,10 +5357,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5377,31 +5368,31 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>88</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>107</v>
+        <v>219</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5427,13 +5418,13 @@
         <v>76</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>215</v>
+        <v>293</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>76</v>
@@ -5451,13 +5442,13 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>76</v>
@@ -5466,13 +5457,13 @@
         <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>291</v>
+        <v>76</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>76</v>
@@ -5480,10 +5471,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5494,7 +5485,7 @@
         <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>88</v>
@@ -5503,20 +5494,18 @@
         <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>295</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>76</v>
@@ -5541,37 +5530,37 @@
         <v>76</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>296</v>
+        <v>111</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Z31" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF31" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="AA31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>292</v>
-      </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>76</v>
@@ -5580,13 +5569,13 @@
         <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>299</v>
+        <v>76</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>76</v>
+        <v>304</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>76</v>
@@ -5594,10 +5583,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5605,7 +5594,7 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>87</v>
@@ -5620,15 +5609,17 @@
         <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>222</v>
+        <v>306</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>76</v>
@@ -5653,34 +5644,34 @@
         <v>76</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>111</v>
+        <v>293</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="Z32" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF32" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AA32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>301</v>
-      </c>
       <c r="AG32" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>87</v>
@@ -5692,13 +5683,13 @@
         <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>76</v>
+        <v>312</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>76</v>
@@ -5706,10 +5697,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5732,17 +5723,15 @@
         <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>312</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>76</v>
@@ -5767,13 +5756,13 @@
         <v>76</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>296</v>
+        <v>76</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>313</v>
+        <v>76</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>314</v>
+        <v>76</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>76</v>
@@ -5791,7 +5780,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>87</v>
@@ -5806,24 +5795,24 @@
         <v>99</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>76</v>
+        <v>322</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5831,13 +5820,13 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>76</v>
@@ -5846,13 +5835,13 @@
         <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5903,10 +5892,10 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>87</v>
@@ -5918,24 +5907,24 @@
         <v>99</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>324</v>
+        <v>76</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>325</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5943,13 +5932,13 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>76</v>
@@ -5958,15 +5947,17 @@
         <v>88</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>76</v>
@@ -6015,7 +6006,7 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -6030,13 +6021,13 @@
         <v>99</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>76</v>
+        <v>336</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>76</v>
@@ -6044,10 +6035,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6055,7 +6046,7 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>87</v>
@@ -6070,17 +6061,15 @@
         <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>336</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>76</v>
@@ -6129,7 +6118,7 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -6144,13 +6133,13 @@
         <v>99</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>337</v>
+        <v>76</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>76</v>
@@ -6158,10 +6147,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6169,7 +6158,7 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>87</v>
@@ -6181,16 +6170,16 @@
         <v>76</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6241,7 +6230,7 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -6259,10 +6248,10 @@
         <v>76</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>76</v>
@@ -6270,10 +6259,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6281,13 +6270,13 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>76</v>
@@ -6296,15 +6285,17 @@
         <v>76</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>353</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>76</v>
@@ -6353,13 +6344,13 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>76</v>
@@ -6371,10 +6362,10 @@
         <v>76</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>351</v>
+        <v>76</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>76</v>
@@ -6382,10 +6373,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6399,7 +6390,7 @@
         <v>78</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>76</v>
@@ -6408,16 +6399,16 @@
         <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>353</v>
+        <v>219</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6443,13 +6434,13 @@
         <v>76</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>76</v>
+        <v>293</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>76</v>
+        <v>359</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>76</v>
+        <v>360</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>76</v>
@@ -6467,7 +6458,7 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -6482,13 +6473,13 @@
         <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>76</v>
+        <v>361</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>76</v>
+        <v>363</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>76</v>
@@ -6496,10 +6487,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6522,16 +6513,16 @@
         <v>76</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>222</v>
+        <v>365</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6557,13 +6548,13 @@
         <v>76</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>296</v>
+        <v>76</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>362</v>
+        <v>76</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>363</v>
+        <v>76</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>76</v>
@@ -6581,7 +6572,7 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -6596,13 +6587,13 @@
         <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>76</v>
@@ -6610,10 +6601,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6636,17 +6627,15 @@
         <v>76</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>371</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>76</v>
@@ -6695,7 +6684,7 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6710,13 +6699,13 @@
         <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>366</v>
+        <v>76</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>76</v>
@@ -6724,10 +6713,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6750,15 +6739,17 @@
         <v>76</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>381</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>76</v>
@@ -6807,7 +6798,7 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6822,10 +6813,10 @@
         <v>99</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>378</v>
+        <v>76</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>76</v>
@@ -6836,10 +6827,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6850,10 +6841,10 @@
         <v>77</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>76</v>
@@ -6862,17 +6853,15 @@
         <v>76</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>381</v>
+        <v>195</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>382</v>
+        <v>196</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>384</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>76</v>
@@ -6921,25 +6910,25 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>380</v>
+        <v>198</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>385</v>
+        <v>199</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>76</v>
@@ -6950,21 +6939,21 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>76</v>
@@ -6976,15 +6965,17 @@
         <v>76</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>198</v>
+        <v>133</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>76</v>
@@ -7021,37 +7012,37 @@
         <v>76</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>76</v>
+        <v>204</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>76</v>
@@ -7062,24 +7053,26 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="C45" s="2"/>
+        <v>384</v>
+      </c>
+      <c r="C45" t="s" s="2">
+        <v>386</v>
+      </c>
       <c r="D45" t="s" s="2">
-        <v>176</v>
+        <v>76</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>76</v>
@@ -7088,17 +7081,15 @@
         <v>76</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>133</v>
+        <v>387</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>205</v>
+        <v>388</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>179</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>76</v>
@@ -7135,19 +7126,19 @@
         <v>76</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>207</v>
+        <v>76</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -7165,7 +7156,7 @@
         <v>76</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>202</v>
+        <v>76</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>76</v>
@@ -7176,13 +7167,13 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>76</v>
@@ -7204,13 +7195,13 @@
         <v>76</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>392</v>
+        <v>150</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7261,7 +7252,7 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -7290,44 +7281,46 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="C47" t="s" s="2">
         <v>394</v>
       </c>
+      <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>76</v>
+        <v>395</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I47" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="I47" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="J47" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>395</v>
+        <v>133</v>
       </c>
       <c r="L47" t="s" s="2">
         <v>396</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
+        <v>397</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>76</v>
       </c>
@@ -7375,7 +7368,7 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>208</v>
+        <v>398</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -7393,7 +7386,7 @@
         <v>76</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>76</v>
@@ -7404,45 +7397,43 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>398</v>
+        <v>76</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J48" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>133</v>
+        <v>400</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>179</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>180</v>
+        <v>403</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>76</v>
@@ -7491,39 +7482,39 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>130</v>
+        <v>405</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>76</v>
+        <v>406</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7546,17 +7537,17 @@
         <v>88</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>403</v>
+        <v>195</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>76</v>
@@ -7605,7 +7596,7 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -7623,21 +7614,21 @@
         <v>76</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7648,7 +7639,7 @@
         <v>77</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>76</v>
@@ -7660,17 +7651,19 @@
         <v>88</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>415</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>416</v>
+      </c>
       <c r="O50" t="s" s="2">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>76</v>
@@ -7695,13 +7688,13 @@
         <v>76</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>76</v>
+        <v>293</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>76</v>
+        <v>418</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>76</v>
+        <v>419</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>76</v>
@@ -7719,13 +7712,13 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>76</v>
@@ -7737,21 +7730,21 @@
         <v>76</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>415</v>
+        <v>421</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7762,7 +7755,7 @@
         <v>77</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>76</v>
@@ -7774,20 +7767,16 @@
         <v>88</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>420</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>76</v>
       </c>
@@ -7811,13 +7800,13 @@
         <v>76</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>296</v>
+        <v>76</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>421</v>
+        <v>76</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>422</v>
+        <v>76</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>76</v>
@@ -7835,13 +7824,13 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>76</v>
@@ -7853,21 +7842,21 @@
         <v>76</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7890,16 +7879,20 @@
         <v>88</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>198</v>
+        <v>427</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
+        <v>429</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>431</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>76</v>
       </c>
@@ -7947,7 +7940,7 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -7965,21 +7958,21 @@
         <v>76</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>408</v>
+        <v>335</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>424</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8002,20 +7995,18 @@
         <v>88</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>434</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>76</v>
       </c>
@@ -8039,13 +8030,13 @@
         <v>76</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>76</v>
+        <v>293</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>76</v>
+        <v>438</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>76</v>
+        <v>439</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>76</v>
@@ -8063,7 +8054,7 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -8081,21 +8072,21 @@
         <v>76</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>338</v>
+        <v>441</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>76</v>
+        <v>442</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8118,18 +8109,20 @@
         <v>88</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>437</v>
+        <v>219</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="O54" s="2"/>
+        <v>446</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>447</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>76</v>
       </c>
@@ -8153,13 +8146,13 @@
         <v>76</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>76</v>
@@ -8177,7 +8170,7 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -8195,21 +8188,21 @@
         <v>76</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>445</v>
+        <v>452</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8232,19 +8225,17 @@
         <v>88</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>449</v>
-      </c>
+        <v>455</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>76</v>
@@ -8269,13 +8260,13 @@
         <v>76</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>76</v>
@@ -8293,7 +8284,7 @@
         <v>76</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
@@ -8311,21 +8302,21 @@
         <v>76</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>455</v>
+        <v>461</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8348,17 +8339,19 @@
         <v>88</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>464</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>465</v>
+      </c>
       <c r="O56" t="s" s="2">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>76</v>
@@ -8383,13 +8376,13 @@
         <v>76</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>76</v>
@@ -8407,7 +8400,7 @@
         <v>76</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -8425,21 +8418,21 @@
         <v>76</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>464</v>
+        <v>471</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8450,7 +8443,7 @@
         <v>77</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>76</v>
@@ -8462,20 +8455,16 @@
         <v>88</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>222</v>
+        <v>473</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>469</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>76</v>
       </c>
@@ -8499,13 +8488,13 @@
         <v>76</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>296</v>
+        <v>76</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>470</v>
+        <v>76</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>471</v>
+        <v>76</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>76</v>
@@ -8523,13 +8512,13 @@
         <v>76</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>76</v>
@@ -8541,21 +8530,21 @@
         <v>76</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>473</v>
+        <v>76</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8566,7 +8555,7 @@
         <v>77</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>76</v>
@@ -8575,16 +8564,16 @@
         <v>76</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>476</v>
+        <v>195</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>477</v>
+        <v>196</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>478</v>
+        <v>197</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8635,50 +8624,50 @@
         <v>76</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>479</v>
+        <v>198</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>76</v>
+        <v>199</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>480</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>76</v>
@@ -8690,15 +8679,17 @@
         <v>76</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>198</v>
+        <v>133</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>76</v>
@@ -8735,37 +8726,37 @@
         <v>76</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>76</v>
+        <v>204</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>76</v>
@@ -8776,21 +8767,21 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>176</v>
+        <v>76</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>76</v>
@@ -8799,21 +8790,21 @@
         <v>76</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>133</v>
+        <v>219</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>205</v>
+        <v>481</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="O60" s="2"/>
+        <v>482</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" t="s" s="2">
+        <v>483</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>76</v>
       </c>
@@ -8837,63 +8828,63 @@
         <v>76</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>76</v>
+        <v>293</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>76</v>
+        <v>484</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>76</v>
+        <v>485</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>207</v>
+        <v>76</v>
       </c>
       <c r="AD60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>208</v>
+        <v>486</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>202</v>
+        <v>76</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>76</v>
+        <v>487</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8916,17 +8907,19 @@
         <v>88</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>222</v>
+        <v>489</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>491</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>492</v>
+      </c>
       <c r="O61" t="s" s="2">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>76</v>
@@ -8951,13 +8944,13 @@
         <v>76</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>296</v>
+        <v>76</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>487</v>
+        <v>76</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>488</v>
+        <v>76</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>76</v>
@@ -8975,7 +8968,7 @@
         <v>76</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
@@ -8993,21 +8986,21 @@
         <v>76</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>76</v>
+        <v>470</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>490</v>
+        <v>495</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9030,19 +9023,19 @@
         <v>88</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>76</v>
@@ -9091,7 +9084,7 @@
         <v>76</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
@@ -9109,21 +9102,21 @@
         <v>76</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>473</v>
+        <v>503</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>498</v>
+        <v>504</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9146,19 +9139,19 @@
         <v>88</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>76</v>
@@ -9207,7 +9200,7 @@
         <v>76</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
@@ -9225,21 +9218,21 @@
         <v>76</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>507</v>
+        <v>513</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9262,19 +9255,19 @@
         <v>88</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>76</v>
@@ -9323,7 +9316,7 @@
         <v>76</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
@@ -9341,21 +9334,21 @@
         <v>76</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>516</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9378,19 +9371,17 @@
         <v>88</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>521</v>
-      </c>
+        <v>524</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>76</v>
@@ -9439,7 +9430,7 @@
         <v>76</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
@@ -9457,131 +9448,17 @@
         <v>76</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="66" hidden="true">
-      <c r="A66" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="C66" s="2"/>
-      <c r="D66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E66" s="2"/>
-      <c r="F66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="N66" s="2"/>
-      <c r="O66" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="P66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q66" s="2"/>
-      <c r="R66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN66" t="s" s="2">
         <v>76</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN66">
+  <autoFilter ref="A1:AN65">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9591,7 +9468,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI65">
+  <conditionalFormatting sqref="A2:AI64">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-BEMedicationLine.xlsx
+++ b/StructureDefinition-BEMedicationLine.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-09T13:30:16+00:00</t>
+    <t>2024-03-21T20:28:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEMedicationLine.xlsx
+++ b/StructureDefinition-BEMedicationLine.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-21T20:28:49+00:00</t>
+    <t>2024-03-24T09:50:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEMedicationLine.xlsx
+++ b/StructureDefinition-BEMedicationLine.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-24T09:50:04+00:00</t>
+    <t>2024-03-24T15:17:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEMedicationLine.xlsx
+++ b/StructureDefinition-BEMedicationLine.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-24T15:17:23+00:00</t>
+    <t>2024-03-25T22:02:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEMedicationLine.xlsx
+++ b/StructureDefinition-BEMedicationLine.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T22:02:55+00:00</t>
+    <t>2024-03-25T22:27:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEMedicationLine.xlsx
+++ b/StructureDefinition-BEMedicationLine.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T22:27:20+00:00</t>
+    <t>2024-03-26T10:34:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEMedicationLine.xlsx
+++ b/StructureDefinition-BEMedicationLine.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2382" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2383" uniqueCount="528">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-26T10:34:23+00:00</t>
+    <t>2024-03-26T10:57:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -563,6 +563,9 @@
   </si>
   <si>
     <t>Optional Extension Element - found in all resources.</t>
+  </si>
+  <si>
+    <t>This is an R5 element, preadopted as a R4 extension - for the full definition see here: [http://hl7.org/fhir/R5/medicationstatement-definitions.html#MedicationStatement.adherence](http://hl7.org/fhir/R5/medicationstatement-definitions.html#MedicationStatement.adherence)</t>
   </si>
   <si>
     <t>MedicationStatement.modifierExtension</t>
@@ -3677,7 +3680,9 @@
       <c r="M15" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="N15" s="2"/>
+      <c r="N15" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>76</v>
@@ -3755,14 +3760,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3784,16 +3789,16 @@
         <v>133</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>76</v>
@@ -3842,7 +3847,7 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -3871,10 +3876,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3897,16 +3902,16 @@
         <v>88</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3944,10 +3949,10 @@
         <v>76</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>76</v>
@@ -3956,7 +3961,7 @@
         <v>137</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -3971,13 +3976,13 @@
         <v>99</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>76</v>
@@ -3985,13 +3990,13 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>76</v>
@@ -4013,16 +4018,16 @@
         <v>88</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -4072,7 +4077,7 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -4087,13 +4092,13 @@
         <v>99</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>76</v>
@@ -4101,10 +4106,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4127,13 +4132,13 @@
         <v>76</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4184,7 +4189,7 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -4202,7 +4207,7 @@
         <v>76</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>76</v>
@@ -4213,14 +4218,14 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4242,13 +4247,13 @@
         <v>133</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4289,7 +4294,7 @@
         <v>136</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>76</v>
@@ -4298,7 +4303,7 @@
         <v>137</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -4316,7 +4321,7 @@
         <v>76</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>76</v>
@@ -4327,10 +4332,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4356,16 +4361,16 @@
         <v>107</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>76</v>
@@ -4390,13 +4395,13 @@
         <v>76</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>76</v>
@@ -4414,7 +4419,7 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -4432,7 +4437,7 @@
         <v>76</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>76</v>
@@ -4443,10 +4448,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4469,19 +4474,19 @@
         <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>76</v>
@@ -4506,13 +4511,13 @@
         <v>76</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>76</v>
@@ -4530,7 +4535,7 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -4548,21 +4553,21 @@
         <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4588,16 +4593,16 @@
         <v>101</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>76</v>
@@ -4607,10 +4612,10 @@
         <v>76</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="U23" t="s" s="2">
         <v>76</v>
@@ -4646,7 +4651,7 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4664,21 +4669,21 @@
         <v>76</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4701,16 +4706,16 @@
         <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4724,7 +4729,7 @@
         <v>76</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="U24" t="s" s="2">
         <v>76</v>
@@ -4760,7 +4765,7 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4778,21 +4783,21 @@
         <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4815,13 +4820,13 @@
         <v>88</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4872,7 +4877,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4890,21 +4895,21 @@
         <v>76</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4927,16 +4932,16 @@
         <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4986,7 +4991,7 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -5004,21 +5009,21 @@
         <v>76</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5041,17 +5046,17 @@
         <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>76</v>
@@ -5100,7 +5105,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -5115,10 +5120,10 @@
         <v>99</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>76</v>
@@ -5129,10 +5134,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5155,17 +5160,17 @@
         <v>88</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>76</v>
@@ -5214,7 +5219,7 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -5229,10 +5234,10 @@
         <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>76</v>
@@ -5243,10 +5248,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5272,13 +5277,13 @@
         <v>107</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5304,13 +5309,13 @@
         <v>76</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>76</v>
@@ -5328,7 +5333,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>87</v>
@@ -5343,13 +5348,13 @@
         <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>76</v>
@@ -5357,10 +5362,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5383,16 +5388,16 @@
         <v>76</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5418,13 +5423,13 @@
         <v>76</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>76</v>
@@ -5442,7 +5447,7 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -5457,10 +5462,10 @@
         <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>76</v>
@@ -5471,10 +5476,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5497,13 +5502,13 @@
         <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5533,10 +5538,10 @@
         <v>111</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>76</v>
@@ -5554,7 +5559,7 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -5572,10 +5577,10 @@
         <v>76</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>76</v>
@@ -5583,10 +5588,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5609,16 +5614,16 @@
         <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5644,13 +5649,13 @@
         <v>76</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>76</v>
@@ -5668,7 +5673,7 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>87</v>
@@ -5683,13 +5688,13 @@
         <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>76</v>
@@ -5697,10 +5702,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5723,13 +5728,13 @@
         <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5780,7 +5785,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>87</v>
@@ -5795,24 +5800,24 @@
         <v>99</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5835,13 +5840,13 @@
         <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5892,7 +5897,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5907,10 +5912,10 @@
         <v>99</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>76</v>
@@ -5921,10 +5926,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5947,16 +5952,16 @@
         <v>88</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6006,7 +6011,7 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -6021,13 +6026,13 @@
         <v>99</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>76</v>
@@ -6035,10 +6040,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6061,13 +6066,13 @@
         <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6118,7 +6123,7 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -6136,10 +6141,10 @@
         <v>76</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>76</v>
@@ -6147,10 +6152,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6173,13 +6178,13 @@
         <v>76</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6230,7 +6235,7 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -6248,10 +6253,10 @@
         <v>76</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>76</v>
@@ -6259,10 +6264,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6285,16 +6290,16 @@
         <v>76</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6344,7 +6349,7 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -6362,7 +6367,7 @@
         <v>76</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>76</v>
@@ -6373,10 +6378,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6399,16 +6404,16 @@
         <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6434,13 +6439,13 @@
         <v>76</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>76</v>
@@ -6458,7 +6463,7 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -6473,13 +6478,13 @@
         <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>76</v>
@@ -6487,10 +6492,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6513,16 +6518,16 @@
         <v>76</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6572,7 +6577,7 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -6587,13 +6592,13 @@
         <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>76</v>
@@ -6601,10 +6606,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6627,13 +6632,13 @@
         <v>76</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6684,7 +6689,7 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6699,10 +6704,10 @@
         <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>76</v>
@@ -6713,10 +6718,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6739,16 +6744,16 @@
         <v>76</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6798,7 +6803,7 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6816,7 +6821,7 @@
         <v>76</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>76</v>
@@ -6827,10 +6832,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6853,13 +6858,13 @@
         <v>76</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6910,7 +6915,7 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6928,7 +6933,7 @@
         <v>76</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>76</v>
@@ -6939,14 +6944,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6968,13 +6973,13 @@
         <v>133</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7015,7 +7020,7 @@
         <v>136</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>76</v>
@@ -7024,7 +7029,7 @@
         <v>137</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -7042,7 +7047,7 @@
         <v>76</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>76</v>
@@ -7053,13 +7058,13 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="B45" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="B45" t="s" s="2">
-        <v>384</v>
-      </c>
       <c r="C45" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>76</v>
@@ -7081,13 +7086,13 @@
         <v>76</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7138,7 +7143,7 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -7167,13 +7172,13 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>76</v>
@@ -7195,10 +7200,10 @@
         <v>76</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>150</v>
@@ -7252,7 +7257,7 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -7281,14 +7286,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7310,16 +7315,16 @@
         <v>133</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>76</v>
@@ -7368,7 +7373,7 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -7397,10 +7402,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7423,17 +7428,17 @@
         <v>88</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>76</v>
@@ -7482,7 +7487,7 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -7500,21 +7505,21 @@
         <v>76</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7537,17 +7542,17 @@
         <v>88</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>76</v>
@@ -7596,7 +7601,7 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -7614,21 +7619,21 @@
         <v>76</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7651,19 +7656,19 @@
         <v>88</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>76</v>
@@ -7688,13 +7693,13 @@
         <v>76</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>76</v>
@@ -7712,7 +7717,7 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7730,21 +7735,21 @@
         <v>76</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7767,13 +7772,13 @@
         <v>88</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7824,7 +7829,7 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -7842,21 +7847,21 @@
         <v>76</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7879,19 +7884,19 @@
         <v>88</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>76</v>
@@ -7940,7 +7945,7 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -7958,7 +7963,7 @@
         <v>76</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>76</v>
@@ -7969,10 +7974,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7995,16 +8000,16 @@
         <v>88</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8030,13 +8035,13 @@
         <v>76</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>76</v>
@@ -8054,7 +8059,7 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -8072,21 +8077,21 @@
         <v>76</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8109,19 +8114,19 @@
         <v>88</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>76</v>
@@ -8146,13 +8151,13 @@
         <v>76</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>76</v>
@@ -8170,7 +8175,7 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -8188,21 +8193,21 @@
         <v>76</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8225,17 +8230,17 @@
         <v>88</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>76</v>
@@ -8260,13 +8265,13 @@
         <v>76</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>76</v>
@@ -8284,7 +8289,7 @@
         <v>76</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
@@ -8302,21 +8307,21 @@
         <v>76</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8339,19 +8344,19 @@
         <v>88</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>76</v>
@@ -8376,13 +8381,13 @@
         <v>76</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>76</v>
@@ -8400,7 +8405,7 @@
         <v>76</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -8418,21 +8423,21 @@
         <v>76</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8455,13 +8460,13 @@
         <v>88</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8512,7 +8517,7 @@
         <v>76</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
@@ -8536,15 +8541,15 @@
         <v>76</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8567,13 +8572,13 @@
         <v>76</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8624,7 +8629,7 @@
         <v>76</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
@@ -8642,7 +8647,7 @@
         <v>76</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>76</v>
@@ -8653,14 +8658,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8682,13 +8687,13 @@
         <v>133</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8729,7 +8734,7 @@
         <v>136</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>76</v>
@@ -8738,7 +8743,7 @@
         <v>137</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
@@ -8756,7 +8761,7 @@
         <v>76</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>76</v>
@@ -8767,10 +8772,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8793,17 +8798,17 @@
         <v>88</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>76</v>
@@ -8828,13 +8833,13 @@
         <v>76</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>76</v>
@@ -8852,7 +8857,7 @@
         <v>76</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
@@ -8876,15 +8881,15 @@
         <v>76</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8907,19 +8912,19 @@
         <v>88</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>76</v>
@@ -8968,7 +8973,7 @@
         <v>76</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
@@ -8986,21 +8991,21 @@
         <v>76</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9023,19 +9028,19 @@
         <v>88</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>76</v>
@@ -9084,7 +9089,7 @@
         <v>76</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
@@ -9102,21 +9107,21 @@
         <v>76</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9139,19 +9144,19 @@
         <v>88</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>76</v>
@@ -9200,7 +9205,7 @@
         <v>76</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
@@ -9218,21 +9223,21 @@
         <v>76</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9255,19 +9260,19 @@
         <v>88</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>76</v>
@@ -9316,7 +9321,7 @@
         <v>76</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
@@ -9334,7 +9339,7 @@
         <v>76</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>76</v>
@@ -9345,10 +9350,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9371,17 +9376,17 @@
         <v>88</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>76</v>
@@ -9430,7 +9435,7 @@
         <v>76</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
@@ -9448,7 +9453,7 @@
         <v>76</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>76</v>

--- a/StructureDefinition-BEMedicationLine.xlsx
+++ b/StructureDefinition-BEMedicationLine.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-30T10:53:39+00:00</t>
+    <t>2024-03-30T10:56:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEMedicationLine.xlsx
+++ b/StructureDefinition-BEMedicationLine.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-30T10:56:30+00:00</t>
+    <t>2024-03-30T13:34:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEMedicationLine.xlsx
+++ b/StructureDefinition-BEMedicationLine.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-30T13:34:04+00:00</t>
+    <t>2024-03-30T13:49:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEMedicationLine.xlsx
+++ b/StructureDefinition-BEMedicationLine.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-30T13:49:38+00:00</t>
+    <t>2024-03-30T14:41:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEMedicationLine.xlsx
+++ b/StructureDefinition-BEMedicationLine.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-30T14:41:48+00:00</t>
+    <t>2024-03-30T19:04:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEMedicationLine.xlsx
+++ b/StructureDefinition-BEMedicationLine.xlsx
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-30T19:04:54+00:00</t>
+    <t>2024-04-03T13:08:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>eHealth Platform</t>
+    <t>HL7 Belgium</t>
   </si>
   <si>
     <t>Contact</t>

--- a/StructureDefinition-BEMedicationLine.xlsx
+++ b/StructureDefinition-BEMedicationLine.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2383" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2383" uniqueCount="529">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-03T13:08:50+00:00</t>
+    <t>2024-04-07T08:57:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,10 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>HL7 Belgium (https://www.hl7belgium.org, hl7belgium@hl7belgium.org)</t>
+  </si>
+  <si>
+    <t>Message Structure eHealth (message-structure@ehealth.fgov.be(WORK))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -1907,83 +1910,83 @@
         <v>16</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -2045,7422 +2048,7422 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AM40" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="AG40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>364</v>
-      </c>
       <c r="AN40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="B45" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="B45" t="s" s="2">
-        <v>385</v>
-      </c>
       <c r="C45" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="P48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="P49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="P50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="P54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="P55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="P56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q57" s="2"/>
       <c r="R57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="P60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="P61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="P62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q62" s="2"/>
       <c r="R62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="P63" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S63" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T63" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U63" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V63" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD63" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="P64" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S64" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T64" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U64" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V64" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA64" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="P65" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q65" s="2"/>
       <c r="R65" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S65" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T65" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U65" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V65" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA65" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC65" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD65" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-BEMedicationLine.xlsx
+++ b/StructureDefinition-BEMedicationLine.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-07T08:57:13+00:00</t>
+    <t>2024-04-07T09:48:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEMedicationLine.xlsx
+++ b/StructureDefinition-BEMedicationLine.xlsx
@@ -57,19 +57,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-07T12:19:24+00:00</t>
+    <t>2024-04-07T13:15:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>eHealth Platform</t>
+    <t>HL7 Belgium</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>eHealth Platform (https://www.ehealth.fgov.be/standards/fhir, message-structure@ehealth.fgov.be)</t>
+    <t>HL7 Belgium (https://www.hl7belgium.org, hl7belgium@hl7belgium.org)</t>
   </si>
   <si>
     <t>Message Structure eHealth (message-structure@ehealth.fgov.be(WORK))</t>

--- a/StructureDefinition-BEMedicationLine.xlsx
+++ b/StructureDefinition-BEMedicationLine.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-07T13:15:37+00:00</t>
+    <t>2024-04-07T13:19:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEMedicationLine.xlsx
+++ b/StructureDefinition-BEMedicationLine.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-07T13:19:46+00:00</t>
+    <t>2024-04-10T07:41:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEMedicationLine.xlsx
+++ b/StructureDefinition-BEMedicationLine.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T07:41:38+00:00</t>
+    <t>2024-04-14T06:15:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEMedicationLine.xlsx
+++ b/StructureDefinition-BEMedicationLine.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$64</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2383" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2347" uniqueCount="524">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-14T06:15:19+00:00</t>
+    <t>2024-05-06T21:25:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -501,22 +501,6 @@
     <t>Dispense Request Needed - category.</t>
   </si>
   <si>
-    <t>MedicationStatement.extension:visibility-flag</t>
-  </si>
-  <si>
-    <t>visibility-flag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/medication/StructureDefinition/VisibilityFlag}
-</t>
-  </si>
-  <si>
-    <t>Coded preference or assertion about the visibility of the medication line</t>
-  </si>
-  <si>
-    <t>Visibility Flag.</t>
-  </si>
-  <si>
     <t>MedicationStatement.extension:artifact-version</t>
   </si>
   <si>
@@ -530,7 +514,7 @@
     <t>The business version of the medication line - this version changes when the content update is considered clinically relevant</t>
   </si>
   <si>
-    <t>The identifier that is used to identify this version of the {{title}} when it is referenced in a specification, model, design or instance. This is an arbitrary value managed by the {{title}} author and is not expected to be globally unique. For example, it might be a timestamp (e.g. yyyymmdd) if a managed version is not available. There is also no expectation that versions can be placed in a lexicographical sequence.</t>
+    <t>The identifier that is used to identify this version of the artifact when it is referenced in a specification, model, design or instance. This is an arbitrary value managed by the artifact author and is not expected to be globally unique. For example, it might be a timestamp (e.g. yyyymmdd) if a managed version is not available. There is also no expectation that versions can be placed in a lexicographical sequence.</t>
   </si>
   <si>
     <t>MedicationStatement.extension:artifact-date</t>
@@ -546,10 +530,10 @@
     <t>The business-relevant recorded date - the date the medication line was created or changed</t>
   </si>
   <si>
-    <t>The date  (and optionally time) when the {{title}} was last significantly changed. The date must change when the business version changes and it must change if the status code changes. In addition, it should change when the substantive content of the {{title}} changes.</t>
-  </si>
-  <si>
-    <t>The date is often not tracked until the resource is published, but may be present on draft content. Note that this is not the same as the resource last-modified-date, since the resource may be a secondary representation of the {{title}}. Additional specific dates may be added as extensions or be found by consulting Provenances associated with past versions of the resource.</t>
+    <t>The date  (and optionally time) when the artifact was last significantly changed. The date must change when the business version changes and it must change if the status code changes. In addition, it should change when the substantive content of the artifact changes.</t>
+  </si>
+  <si>
+    <t>The date is often not tracked until the resource is published, but may be present on draft content. Note that this is not the same as the resource last-modified-date, since the resource may be a secondary representation of the artifact. Additional specific dates may be added as extensions or be found by consulting Provenances associated with past versions of the resource.</t>
   </si>
   <si>
     <t>MedicationStatement.extension:adherence</t>
@@ -1996,7 +1980,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN65"/>
+  <dimension ref="A1:AN64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3317,7 +3301,7 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>88</v>
@@ -3398,7 +3382,7 @@
         <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>140</v>
@@ -3431,7 +3415,7 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>88</v>
@@ -3454,7 +3438,9 @@
       <c r="M13" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="N13" s="2"/>
+      <c r="N13" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>77</v>
@@ -3532,20 +3518,20 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>132</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>88</v>
@@ -3560,16 +3546,16 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3628,7 +3614,7 @@
         <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>140</v>
@@ -3637,7 +3623,7 @@
         <v>77</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>77</v>
@@ -3648,35 +3634,33 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="C15" t="s" s="2">
         <v>169</v>
       </c>
+      <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I15" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="I15" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="J15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="L15" t="s" s="2">
         <v>171</v>
@@ -3687,7 +3671,9 @@
       <c r="N15" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="O15" s="2"/>
+      <c r="O15" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
       </c>
@@ -3735,7 +3721,7 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -3744,7 +3730,7 @@
         <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>140</v>
@@ -3764,46 +3750,44 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J16" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="J16" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="K16" t="s" s="2">
-        <v>134</v>
+        <v>177</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>179</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>77</v>
       </c>
@@ -3839,19 +3823,19 @@
         <v>77</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>77</v>
+        <v>181</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>77</v>
+        <v>182</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -3863,16 +3847,16 @@
         <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>77</v>
+        <v>183</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>131</v>
+        <v>184</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>77</v>
+        <v>185</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>77</v>
@@ -3880,21 +3864,23 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="D17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G17" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="G17" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>89</v>
@@ -3906,16 +3892,16 @@
         <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3953,19 +3939,19 @@
         <v>77</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>186</v>
+        <v>77</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>187</v>
+        <v>77</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -3980,13 +3966,13 @@
         <v>100</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>77</v>
@@ -3994,14 +3980,12 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="B18" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="C18" t="s" s="2">
-        <v>192</v>
-      </c>
+      <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
         <v>77</v>
       </c>
@@ -4013,16 +3997,16 @@
         <v>88</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="L18" t="s" s="2">
         <v>193</v>
@@ -4030,9 +4014,7 @@
       <c r="M18" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="N18" t="s" s="2">
-        <v>185</v>
-      </c>
+      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>77</v>
@@ -4081,28 +4063,28 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>190</v>
+        <v>77</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>77</v>
@@ -4110,21 +4092,21 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>77</v>
@@ -4136,15 +4118,17 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>197</v>
+        <v>134</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>77</v>
@@ -4181,37 +4165,37 @@
         <v>77</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>77</v>
@@ -4222,44 +4206,46 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="O20" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
       </c>
@@ -4283,63 +4269,63 @@
         <v>77</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>77</v>
+        <v>209</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>77</v>
+        <v>210</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>77</v>
+        <v>211</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>206</v>
+        <v>77</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4356,25 +4342,25 @@
         <v>77</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>108</v>
+        <v>216</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>77</v>
@@ -4399,13 +4385,13 @@
         <v>77</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>77</v>
@@ -4423,7 +4409,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -4441,21 +4427,21 @@
         <v>77</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>131</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4463,7 +4449,7 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>88</v>
@@ -4478,19 +4464,19 @@
         <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>221</v>
+        <v>102</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>77</v>
@@ -4500,10 +4486,10 @@
         <v>77</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>77</v>
+        <v>232</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>77</v>
+        <v>233</v>
       </c>
       <c r="U22" t="s" s="2">
         <v>77</v>
@@ -4515,13 +4501,13 @@
         <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>226</v>
+        <v>77</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>227</v>
+        <v>77</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>228</v>
+        <v>77</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>77</v>
@@ -4539,7 +4525,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4557,21 +4543,21 @@
         <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4579,13 +4565,13 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>77</v>
@@ -4594,20 +4580,18 @@
         <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>102</v>
+        <v>192</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>77</v>
       </c>
@@ -4616,10 +4600,10 @@
         <v>77</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>237</v>
+        <v>77</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="U23" t="s" s="2">
         <v>77</v>
@@ -4655,7 +4639,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4673,21 +4657,21 @@
         <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4701,7 +4685,7 @@
         <v>88</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>77</v>
@@ -4710,17 +4694,15 @@
         <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>197</v>
+        <v>248</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>77</v>
@@ -4733,7 +4715,7 @@
         <v>77</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>247</v>
+        <v>77</v>
       </c>
       <c r="U24" t="s" s="2">
         <v>77</v>
@@ -4769,7 +4751,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4787,21 +4769,21 @@
         <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4824,15 +4806,17 @@
         <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4881,7 +4865,7 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4899,21 +4883,21 @@
         <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4924,7 +4908,7 @@
         <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>77</v>
@@ -4936,18 +4920,18 @@
         <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="O26" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>77</v>
       </c>
@@ -4995,13 +4979,13 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>77</v>
@@ -5010,24 +4994,24 @@
         <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>77</v>
+        <v>268</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>267</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5050,17 +5034,17 @@
         <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>77</v>
@@ -5109,7 +5093,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -5124,10 +5108,10 @@
         <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>77</v>
@@ -5138,10 +5122,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5149,33 +5133,33 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>276</v>
+        <v>108</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" t="s" s="2">
         <v>279</v>
       </c>
+      <c r="N28" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>77</v>
       </c>
@@ -5199,13 +5183,13 @@
         <v>77</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>77</v>
+        <v>209</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>77</v>
+        <v>281</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>77</v>
+        <v>282</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>77</v>
@@ -5223,13 +5207,13 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>77</v>
@@ -5238,13 +5222,13 @@
         <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>77</v>
+        <v>285</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -5252,10 +5236,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5263,31 +5247,31 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>89</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>108</v>
+        <v>216</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5313,37 +5297,37 @@
         <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>214</v>
+        <v>290</v>
       </c>
       <c r="Y29" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF29" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="Z29" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>282</v>
-      </c>
       <c r="AG29" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>77</v>
@@ -5352,13 +5336,13 @@
         <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>290</v>
+        <v>77</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -5366,10 +5350,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5380,7 +5364,7 @@
         <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>89</v>
@@ -5389,20 +5373,18 @@
         <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -5427,37 +5409,37 @@
         <v>77</v>
       </c>
       <c r="X30" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF30" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="Y30" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>291</v>
-      </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>77</v>
@@ -5466,13 +5448,13 @@
         <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>298</v>
+        <v>77</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>77</v>
+        <v>301</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -5480,10 +5462,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5491,7 +5473,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>88</v>
@@ -5506,15 +5488,17 @@
         <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>221</v>
+        <v>303</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>77</v>
@@ -5539,13 +5523,13 @@
         <v>77</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>112</v>
+        <v>290</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>77</v>
@@ -5563,10 +5547,10 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>88</v>
@@ -5578,13 +5562,13 @@
         <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>77</v>
+        <v>309</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5592,10 +5576,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5618,17 +5602,15 @@
         <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>311</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>77</v>
@@ -5653,31 +5635,31 @@
         <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>295</v>
+        <v>77</v>
       </c>
       <c r="Y32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF32" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>88</v>
@@ -5692,24 +5674,24 @@
         <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>77</v>
+        <v>319</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5717,13 +5699,13 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>77</v>
@@ -5732,13 +5714,13 @@
         <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5789,10 +5771,10 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>88</v>
@@ -5804,24 +5786,24 @@
         <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>323</v>
+        <v>77</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>324</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5829,13 +5811,13 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>77</v>
@@ -5844,15 +5826,17 @@
         <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>77</v>
@@ -5901,7 +5885,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5916,13 +5900,13 @@
         <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>77</v>
+        <v>333</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>77</v>
@@ -5930,10 +5914,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5941,7 +5925,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>88</v>
@@ -5956,17 +5940,15 @@
         <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>335</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -6015,7 +5997,7 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -6030,13 +6012,13 @@
         <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>336</v>
+        <v>77</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -6044,10 +6026,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6055,7 +6037,7 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>88</v>
@@ -6067,16 +6049,16 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6127,7 +6109,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -6145,10 +6127,10 @@
         <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -6156,10 +6138,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6167,13 +6149,13 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>77</v>
@@ -6182,15 +6164,17 @@
         <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>77</v>
@@ -6239,13 +6223,13 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>77</v>
@@ -6257,10 +6241,10 @@
         <v>77</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>350</v>
+        <v>77</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>77</v>
@@ -6268,10 +6252,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6285,7 +6269,7 @@
         <v>79</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>77</v>
@@ -6294,7 +6278,7 @@
         <v>77</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>352</v>
+        <v>216</v>
       </c>
       <c r="L38" t="s" s="2">
         <v>353</v>
@@ -6329,13 +6313,13 @@
         <v>77</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>77</v>
+        <v>290</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>77</v>
+        <v>356</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>77</v>
+        <v>357</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>77</v>
@@ -6353,7 +6337,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6368,13 +6352,13 @@
         <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>77</v>
+        <v>358</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>77</v>
+        <v>360</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>77</v>
@@ -6382,10 +6366,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6408,16 +6392,16 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>221</v>
+        <v>362</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6443,31 +6427,31 @@
         <v>77</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>295</v>
+        <v>77</v>
       </c>
       <c r="Y39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF39" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6482,13 +6466,13 @@
         <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>77</v>
@@ -6496,10 +6480,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6522,17 +6506,15 @@
         <v>77</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>370</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -6581,7 +6563,7 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6596,13 +6578,13 @@
         <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>365</v>
+        <v>77</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>77</v>
@@ -6610,10 +6592,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6636,15 +6618,17 @@
         <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>378</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>77</v>
@@ -6693,7 +6677,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6708,10 +6692,10 @@
         <v>100</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>377</v>
+        <v>77</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>77</v>
@@ -6722,10 +6706,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6736,10 +6720,10 @@
         <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>77</v>
@@ -6748,17 +6732,15 @@
         <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>380</v>
+        <v>192</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>381</v>
+        <v>193</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>383</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>77</v>
@@ -6807,25 +6789,25 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>379</v>
+        <v>195</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>384</v>
+        <v>196</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>77</v>
@@ -6836,21 +6818,21 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>77</v>
@@ -6862,15 +6844,17 @@
         <v>77</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>197</v>
+        <v>134</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -6907,37 +6891,37 @@
         <v>77</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>77</v>
@@ -6948,24 +6932,26 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="C44" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="C44" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="D44" t="s" s="2">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>77</v>
@@ -6974,17 +6960,15 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>134</v>
+        <v>384</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>204</v>
+        <v>385</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>77</v>
@@ -7021,19 +7005,19 @@
         <v>77</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>206</v>
+        <v>77</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -7051,7 +7035,7 @@
         <v>77</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>77</v>
@@ -7065,7 +7049,7 @@
         <v>387</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C45" t="s" s="2">
         <v>388</v>
@@ -7096,7 +7080,7 @@
         <v>390</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>391</v>
+        <v>151</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7147,7 +7131,7 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -7176,44 +7160,46 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="C46" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="D46" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I46" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="I46" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="J46" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="L46" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
+      <c r="N46" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>77</v>
       </c>
@@ -7261,7 +7247,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>207</v>
+        <v>395</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7279,7 +7265,7 @@
         <v>77</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>77</v>
@@ -7297,26 +7283,26 @@
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>397</v>
+        <v>77</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>134</v>
+        <v>397</v>
       </c>
       <c r="L47" t="s" s="2">
         <v>398</v>
@@ -7324,11 +7310,9 @@
       <c r="M47" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="N47" t="s" s="2">
-        <v>178</v>
-      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>179</v>
+        <v>400</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>77</v>
@@ -7377,39 +7361,39 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>131</v>
+        <v>402</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>77</v>
+        <v>403</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7432,17 +7416,17 @@
         <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>402</v>
+        <v>192</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -7491,7 +7475,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7509,21 +7493,21 @@
         <v>77</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7534,7 +7518,7 @@
         <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>77</v>
@@ -7546,17 +7530,19 @@
         <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>412</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="O49" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>77</v>
@@ -7581,13 +7567,13 @@
         <v>77</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>77</v>
+        <v>290</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>77</v>
+        <v>415</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>77</v>
+        <v>416</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>77</v>
@@ -7605,13 +7591,13 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>77</v>
@@ -7623,21 +7609,21 @@
         <v>77</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7648,7 +7634,7 @@
         <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>77</v>
@@ -7660,20 +7646,16 @@
         <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>419</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>77</v>
       </c>
@@ -7697,13 +7679,13 @@
         <v>77</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>295</v>
+        <v>77</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>420</v>
+        <v>77</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>421</v>
+        <v>77</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>77</v>
@@ -7727,7 +7709,7 @@
         <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>77</v>
@@ -7739,21 +7721,21 @@
         <v>77</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>423</v>
+        <v>418</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7776,7 +7758,7 @@
         <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>197</v>
+        <v>424</v>
       </c>
       <c r="L51" t="s" s="2">
         <v>425</v>
@@ -7784,8 +7766,12 @@
       <c r="M51" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
+      <c r="N51" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>428</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>77</v>
       </c>
@@ -7833,7 +7819,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7851,21 +7837,21 @@
         <v>77</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>407</v>
+        <v>332</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>423</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7888,20 +7874,18 @@
         <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>433</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>77</v>
       </c>
@@ -7925,13 +7909,13 @@
         <v>77</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>77</v>
+        <v>290</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>77</v>
+        <v>435</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>77</v>
+        <v>436</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>77</v>
@@ -7949,7 +7933,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -7967,21 +7951,21 @@
         <v>77</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>337</v>
+        <v>438</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>77</v>
+        <v>439</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8004,18 +7988,20 @@
         <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>436</v>
+        <v>216</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="O53" s="2"/>
+        <v>443</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>444</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>77</v>
       </c>
@@ -8039,13 +8025,13 @@
         <v>77</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>77</v>
@@ -8063,7 +8049,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -8081,21 +8067,21 @@
         <v>77</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8118,19 +8104,17 @@
         <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>448</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>77</v>
@@ -8155,13 +8139,13 @@
         <v>77</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>77</v>
@@ -8179,7 +8163,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8197,21 +8181,21 @@
         <v>77</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>454</v>
+        <v>458</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8234,17 +8218,19 @@
         <v>89</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>461</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>462</v>
+      </c>
       <c r="O55" t="s" s="2">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -8269,13 +8255,13 @@
         <v>77</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>77</v>
@@ -8293,7 +8279,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8311,21 +8297,21 @@
         <v>77</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>463</v>
+        <v>468</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8336,7 +8322,7 @@
         <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>77</v>
@@ -8348,20 +8334,16 @@
         <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>221</v>
+        <v>470</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>468</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>77</v>
       </c>
@@ -8385,13 +8367,13 @@
         <v>77</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>295</v>
+        <v>77</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>469</v>
+        <v>77</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>470</v>
+        <v>77</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>77</v>
@@ -8409,13 +8391,13 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>77</v>
@@ -8427,21 +8409,21 @@
         <v>77</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>472</v>
+        <v>77</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8452,7 +8434,7 @@
         <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>77</v>
@@ -8461,16 +8443,16 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>475</v>
+        <v>192</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>476</v>
+        <v>193</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>477</v>
+        <v>194</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8521,50 +8503,50 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>478</v>
+        <v>195</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>77</v>
+        <v>196</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>479</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>77</v>
@@ -8576,15 +8558,17 @@
         <v>77</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>197</v>
+        <v>134</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>77</v>
@@ -8621,37 +8605,37 @@
         <v>77</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="AD58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>77</v>
@@ -8662,21 +8646,21 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>77</v>
@@ -8685,21 +8669,21 @@
         <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>134</v>
+        <v>216</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>204</v>
+        <v>478</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="O59" s="2"/>
+        <v>479</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>480</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>77</v>
       </c>
@@ -8723,63 +8707,63 @@
         <v>77</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>77</v>
+        <v>290</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>77</v>
+        <v>481</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>77</v>
+        <v>482</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>206</v>
+        <v>77</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>207</v>
+        <v>483</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>77</v>
+        <v>484</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8802,17 +8786,19 @@
         <v>89</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>221</v>
+        <v>486</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>488</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>489</v>
+      </c>
       <c r="O60" t="s" s="2">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -8837,13 +8823,13 @@
         <v>77</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>295</v>
+        <v>77</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>486</v>
+        <v>77</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>487</v>
+        <v>77</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>77</v>
@@ -8861,7 +8847,7 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -8879,21 +8865,21 @@
         <v>77</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>77</v>
+        <v>467</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>489</v>
+        <v>492</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8916,19 +8902,19 @@
         <v>89</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>77</v>
@@ -8977,7 +8963,7 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -8995,21 +8981,21 @@
         <v>77</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>472</v>
+        <v>500</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>497</v>
+        <v>501</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9032,19 +9018,19 @@
         <v>89</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>77</v>
@@ -9093,7 +9079,7 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -9111,21 +9097,21 @@
         <v>77</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>506</v>
+        <v>510</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9148,19 +9134,19 @@
         <v>89</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>77</v>
@@ -9209,7 +9195,7 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9227,21 +9213,21 @@
         <v>77</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>515</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9264,19 +9250,17 @@
         <v>89</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>520</v>
-      </c>
+        <v>521</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>77</v>
@@ -9325,7 +9309,7 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9343,131 +9327,17 @@
         <v>77</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="65" hidden="true">
-      <c r="A65" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="C65" s="2"/>
-      <c r="D65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E65" s="2"/>
-      <c r="F65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="N65" s="2"/>
-      <c r="O65" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="P65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q65" s="2"/>
-      <c r="R65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN65" t="s" s="2">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN65">
+  <autoFilter ref="A1:AN64">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9477,7 +9347,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI64">
+  <conditionalFormatting sqref="A2:AI63">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-BEMedicationLine.xlsx
+++ b/StructureDefinition-BEMedicationLine.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-06T21:25:42+00:00</t>
+    <t>2024-05-07T09:01:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEMedicationLine.xlsx
+++ b/StructureDefinition-BEMedicationLine.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-07T09:20:42+00:00</t>
+    <t>2024-05-07T13:22:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
